--- a/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
+++ b/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
@@ -876,7 +876,7 @@
         <v>230.0303074788577</v>
       </c>
       <c r="AB2">
-        <v>248.6627623846452</v>
+        <v>248.6627623846451</v>
       </c>
       <c r="AC2">
         <v>268.729847309086</v>
@@ -897,7 +897,7 @@
         <v>393.5010382620756</v>
       </c>
       <c r="AI2">
-        <v>422.1029423003248</v>
+        <v>422.1029423003247</v>
       </c>
       <c r="AJ2">
         <v>450.4139896446107</v>
@@ -2362,7 +2362,7 @@
         <v>4.404917231047246</v>
       </c>
       <c r="AK10">
-        <v>4.404917126488972</v>
+        <v>4.404917126488971</v>
       </c>
       <c r="AL10">
         <v>4.404917246488808</v>
@@ -2413,7 +2413,7 @@
         <v>4.404917182775161</v>
       </c>
       <c r="BB10">
-        <v>4.404917304046252</v>
+        <v>4.404917304046251</v>
       </c>
       <c r="BC10">
         <v>4.404917213727725</v>
